--- a/contratos/contratos-7-2016.xlsx
+++ b/contratos/contratos-7-2016.xlsx
@@ -871,13 +871,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1024,7 +1024,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1534,646 +1534,646 @@
     <t>12</t>
   </si>
   <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>14.595,00</t>
-  </si>
-  <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>1.279.144,00</t>
-  </si>
-  <si>
-    <t>136.000,00</t>
-  </si>
-  <si>
-    <t>610.000,00</t>
-  </si>
-  <si>
-    <t>835.000,00</t>
-  </si>
-  <si>
-    <t>574.668,00</t>
-  </si>
-  <si>
-    <t>140.000,00</t>
-  </si>
-  <si>
-    <t>10.823,19</t>
-  </si>
-  <si>
-    <t>320.504,80</t>
-  </si>
-  <si>
-    <t>627.710,00</t>
-  </si>
-  <si>
-    <t>2.769,98</t>
-  </si>
-  <si>
-    <t>5.976,00</t>
-  </si>
-  <si>
-    <t>752,00</t>
-  </si>
-  <si>
-    <t>182.431,77</t>
-  </si>
-  <si>
-    <t>463.633,95</t>
-  </si>
-  <si>
-    <t>31.718,56</t>
-  </si>
-  <si>
-    <t>181.454,34</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>23.338,00</t>
-  </si>
-  <si>
-    <t>5.485,10</t>
-  </si>
-  <si>
-    <t>22.660,46</t>
-  </si>
-  <si>
-    <t>20.320,97</t>
-  </si>
-  <si>
-    <t>11.450,00</t>
-  </si>
-  <si>
-    <t>5.650,00</t>
-  </si>
-  <si>
-    <t>1.580,00</t>
-  </si>
-  <si>
-    <t>9.858,98</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>18.005,58</t>
-  </si>
-  <si>
-    <t>475,38</t>
-  </si>
-  <si>
-    <t>5.010,55</t>
-  </si>
-  <si>
-    <t>6.624,50</t>
-  </si>
-  <si>
-    <t>59.272,95</t>
-  </si>
-  <si>
-    <t>136,20</t>
-  </si>
-  <si>
-    <t>5.527,26</t>
-  </si>
-  <si>
-    <t>2.285,54</t>
-  </si>
-  <si>
-    <t>8.150,00</t>
-  </si>
-  <si>
-    <t>18.656,00</t>
-  </si>
-  <si>
-    <t>238.589,21</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>6.602,45</t>
-  </si>
-  <si>
-    <t>122,40</t>
-  </si>
-  <si>
-    <t>673,65</t>
-  </si>
-  <si>
-    <t>38.908,00</t>
-  </si>
-  <si>
-    <t>39.800,00</t>
-  </si>
-  <si>
-    <t>10.183,00</t>
-  </si>
-  <si>
-    <t>5.262,20</t>
-  </si>
-  <si>
-    <t>790,23</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>572,44</t>
-  </si>
-  <si>
-    <t>8,75</t>
-  </si>
-  <si>
-    <t>55,14</t>
-  </si>
-  <si>
-    <t>87.219,80</t>
-  </si>
-  <si>
-    <t>3.539,91</t>
-  </si>
-  <si>
-    <t>5.316,95</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>4.660,12</t>
-  </si>
-  <si>
-    <t>35.436,00</t>
-  </si>
-  <si>
-    <t>1.240,00</t>
-  </si>
-  <si>
-    <t>192,24</t>
-  </si>
-  <si>
-    <t>6.912,00</t>
-  </si>
-  <si>
-    <t>9.358,85</t>
-  </si>
-  <si>
-    <t>9.911,00</t>
-  </si>
-  <si>
-    <t>7.592,00</t>
-  </si>
-  <si>
-    <t>12.750,00</t>
-  </si>
-  <si>
-    <t>64,42</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>2.079,30</t>
-  </si>
-  <si>
-    <t>15.798,00</t>
-  </si>
-  <si>
-    <t>3.252,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>1.766,25</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>8.221,00</t>
-  </si>
-  <si>
-    <t>73.376,00</t>
-  </si>
-  <si>
-    <t>27.701,15</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>39.900,00</t>
-  </si>
-  <si>
-    <t>4.119,00</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>5.746,00</t>
-  </si>
-  <si>
-    <t>5.681,00</t>
-  </si>
-  <si>
-    <t>3.880,00</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>1.982,00</t>
-  </si>
-  <si>
-    <t>117,36</t>
-  </si>
-  <si>
-    <t>32,72</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>63.534,10</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>61,37</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>99,47</t>
-  </si>
-  <si>
-    <t>37,00</t>
-  </si>
-  <si>
-    <t>28.876,26</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>4.719,00</t>
-  </si>
-  <si>
-    <t>766,00</t>
-  </si>
-  <si>
-    <t>145,00</t>
-  </si>
-  <si>
-    <t>358,20</t>
-  </si>
-  <si>
-    <t>3.347,00</t>
-  </si>
-  <si>
-    <t>166,80</t>
-  </si>
-  <si>
-    <t>72,60</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>843,12</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>38.039,92</t>
-  </si>
-  <si>
-    <t>6.228,40</t>
-  </si>
-  <si>
-    <t>3.637,72</t>
-  </si>
-  <si>
-    <t>5.221,93</t>
-  </si>
-  <si>
-    <t>3.145,00</t>
-  </si>
-  <si>
-    <t>438,00</t>
-  </si>
-  <si>
-    <t>1.933,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>6.573,00</t>
-  </si>
-  <si>
-    <t>155,10</t>
-  </si>
-  <si>
-    <t>403,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>5.970,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>684,64</t>
-  </si>
-  <si>
-    <t>2.051,47</t>
-  </si>
-  <si>
-    <t>255,00</t>
-  </si>
-  <si>
-    <t>2.100,45</t>
-  </si>
-  <si>
-    <t>4.733,00</t>
-  </si>
-  <si>
-    <t>8.398,92</t>
-  </si>
-  <si>
-    <t>30.560,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>47.301,60</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>5.967,00</t>
-  </si>
-  <si>
-    <t>5.112,00</t>
-  </si>
-  <si>
-    <t>58.748,50</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>13.740,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>8.260,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.647,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>164,64</t>
-  </si>
-  <si>
-    <t>2.838,00</t>
-  </si>
-  <si>
-    <t>12.054,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>2.469,02</t>
-  </si>
-  <si>
-    <t>9.553,00</t>
-  </si>
-  <si>
-    <t>966,22</t>
-  </si>
-  <si>
-    <t>4.690,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>665,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>877,02</t>
-  </si>
-  <si>
-    <t>332,00</t>
-  </si>
-  <si>
-    <t>18.706,78</t>
-  </si>
-  <si>
-    <t>97.840,00</t>
-  </si>
-  <si>
-    <t>30.238,46</t>
-  </si>
-  <si>
-    <t>11.352,00</t>
-  </si>
-  <si>
-    <t>12.899,17</t>
-  </si>
-  <si>
-    <t>2.173,80</t>
-  </si>
-  <si>
-    <t>7.364,58</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>7.514,07</t>
-  </si>
-  <si>
-    <t>98.820,00</t>
-  </si>
-  <si>
-    <t>632.000,00</t>
-  </si>
-  <si>
-    <t>33.660,60</t>
-  </si>
-  <si>
-    <t>4.179,00</t>
-  </si>
-  <si>
-    <t>119.332,75</t>
-  </si>
-  <si>
-    <t>260.000,00</t>
-  </si>
-  <si>
-    <t>934.219,00</t>
-  </si>
-  <si>
-    <t>2.422.602,00</t>
-  </si>
-  <si>
-    <t>59.948,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>265.000,00</t>
-  </si>
-  <si>
-    <t>315.000,00</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>112.970,85</t>
-  </si>
-  <si>
-    <t>7.618.476,40</t>
-  </si>
-  <si>
-    <t>2.067.145,25</t>
-  </si>
-  <si>
-    <t>19.950,00</t>
-  </si>
-  <si>
-    <t>9.781,53</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>37.200,00</t>
-  </si>
-  <si>
-    <t>723,00</t>
-  </si>
-  <si>
-    <t>738,00</t>
-  </si>
-  <si>
-    <t>2.025,00</t>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>14595.00</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>1279144.00</t>
+  </si>
+  <si>
+    <t>136000.00</t>
+  </si>
+  <si>
+    <t>610000.00</t>
+  </si>
+  <si>
+    <t>835000.00</t>
+  </si>
+  <si>
+    <t>574668.00</t>
+  </si>
+  <si>
+    <t>140000.00</t>
+  </si>
+  <si>
+    <t>10823.19</t>
+  </si>
+  <si>
+    <t>320504.80</t>
+  </si>
+  <si>
+    <t>627710.00</t>
+  </si>
+  <si>
+    <t>2769.98</t>
+  </si>
+  <si>
+    <t>5976.00</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>182431.77</t>
+  </si>
+  <si>
+    <t>463633.95</t>
+  </si>
+  <si>
+    <t>31718.56</t>
+  </si>
+  <si>
+    <t>181454.34</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>23338.00</t>
+  </si>
+  <si>
+    <t>5485.10</t>
+  </si>
+  <si>
+    <t>22660.46</t>
+  </si>
+  <si>
+    <t>20320.97</t>
+  </si>
+  <si>
+    <t>11450.00</t>
+  </si>
+  <si>
+    <t>5650.00</t>
+  </si>
+  <si>
+    <t>1580.00</t>
+  </si>
+  <si>
+    <t>9858.98</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>18005.58</t>
+  </si>
+  <si>
+    <t>475.38</t>
+  </si>
+  <si>
+    <t>5010.55</t>
+  </si>
+  <si>
+    <t>6624.50</t>
+  </si>
+  <si>
+    <t>59272.95</t>
+  </si>
+  <si>
+    <t>136.20</t>
+  </si>
+  <si>
+    <t>5527.26</t>
+  </si>
+  <si>
+    <t>2285.54</t>
+  </si>
+  <si>
+    <t>8150.00</t>
+  </si>
+  <si>
+    <t>18656.00</t>
+  </si>
+  <si>
+    <t>238589.21</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>6602.45</t>
+  </si>
+  <si>
+    <t>122.40</t>
+  </si>
+  <si>
+    <t>673.65</t>
+  </si>
+  <si>
+    <t>38908.00</t>
+  </si>
+  <si>
+    <t>39800.00</t>
+  </si>
+  <si>
+    <t>10183.00</t>
+  </si>
+  <si>
+    <t>5262.20</t>
+  </si>
+  <si>
+    <t>790.23</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>572.44</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>55.14</t>
+  </si>
+  <si>
+    <t>87219.80</t>
+  </si>
+  <si>
+    <t>3539.91</t>
+  </si>
+  <si>
+    <t>5316.95</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>4660.12</t>
+  </si>
+  <si>
+    <t>35436.00</t>
+  </si>
+  <si>
+    <t>1240.00</t>
+  </si>
+  <si>
+    <t>192.24</t>
+  </si>
+  <si>
+    <t>6912.00</t>
+  </si>
+  <si>
+    <t>9358.85</t>
+  </si>
+  <si>
+    <t>9911.00</t>
+  </si>
+  <si>
+    <t>7592.00</t>
+  </si>
+  <si>
+    <t>12750.00</t>
+  </si>
+  <si>
+    <t>64.42</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>2079.30</t>
+  </si>
+  <si>
+    <t>15798.00</t>
+  </si>
+  <si>
+    <t>3252.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>1766.25</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>8221.00</t>
+  </si>
+  <si>
+    <t>73376.00</t>
+  </si>
+  <si>
+    <t>27701.15</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>39900.00</t>
+  </si>
+  <si>
+    <t>4119.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>5746.00</t>
+  </si>
+  <si>
+    <t>5681.00</t>
+  </si>
+  <si>
+    <t>3880.00</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>1982.00</t>
+  </si>
+  <si>
+    <t>117.36</t>
+  </si>
+  <si>
+    <t>32.72</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>63534.10</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>61.37</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>99.47</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>28876.26</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>4719.00</t>
+  </si>
+  <si>
+    <t>766.00</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>358.20</t>
+  </si>
+  <si>
+    <t>3347.00</t>
+  </si>
+  <si>
+    <t>166.80</t>
+  </si>
+  <si>
+    <t>72.60</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>843.12</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>38039.92</t>
+  </si>
+  <si>
+    <t>6228.40</t>
+  </si>
+  <si>
+    <t>3637.72</t>
+  </si>
+  <si>
+    <t>5221.93</t>
+  </si>
+  <si>
+    <t>3145.00</t>
+  </si>
+  <si>
+    <t>438.00</t>
+  </si>
+  <si>
+    <t>1933.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>6573.00</t>
+  </si>
+  <si>
+    <t>155.10</t>
+  </si>
+  <si>
+    <t>403.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>5970.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>684.64</t>
+  </si>
+  <si>
+    <t>2051.47</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>2100.45</t>
+  </si>
+  <si>
+    <t>4733.00</t>
+  </si>
+  <si>
+    <t>8398.92</t>
+  </si>
+  <si>
+    <t>30560.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>47301.60</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>5967.00</t>
+  </si>
+  <si>
+    <t>5112.00</t>
+  </si>
+  <si>
+    <t>58748.50</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>13740.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>8260.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4647.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>164.64</t>
+  </si>
+  <si>
+    <t>2838.00</t>
+  </si>
+  <si>
+    <t>12054.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>2469.02</t>
+  </si>
+  <si>
+    <t>9553.00</t>
+  </si>
+  <si>
+    <t>966.22</t>
+  </si>
+  <si>
+    <t>4690.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>665.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>877.02</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>18706.78</t>
+  </si>
+  <si>
+    <t>97840.00</t>
+  </si>
+  <si>
+    <t>30238.46</t>
+  </si>
+  <si>
+    <t>11352.00</t>
+  </si>
+  <si>
+    <t>12899.17</t>
+  </si>
+  <si>
+    <t>2173.80</t>
+  </si>
+  <si>
+    <t>7364.58</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>7514.07</t>
+  </si>
+  <si>
+    <t>98820.00</t>
+  </si>
+  <si>
+    <t>632000.00</t>
+  </si>
+  <si>
+    <t>33660.60</t>
+  </si>
+  <si>
+    <t>4179.00</t>
+  </si>
+  <si>
+    <t>119332.75</t>
+  </si>
+  <si>
+    <t>260000.00</t>
+  </si>
+  <si>
+    <t>934219.00</t>
+  </si>
+  <si>
+    <t>2422602.00</t>
+  </si>
+  <si>
+    <t>59948.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>265000.00</t>
+  </si>
+  <si>
+    <t>315000.00</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>112970.85</t>
+  </si>
+  <si>
+    <t>7618476.40</t>
+  </si>
+  <si>
+    <t>2067145.25</t>
+  </si>
+  <si>
+    <t>19950.00</t>
+  </si>
+  <si>
+    <t>9781.53</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>37200.00</t>
+  </si>
+  <si>
+    <t>723.00</t>
+  </si>
+  <si>
+    <t>738.00</t>
+  </si>
+  <si>
+    <t>2025.00</t>
   </si>
 </sst>
 </file>
